--- a/biology/Médecine/Élixir_sulfanilamide/Élixir_sulfanilamide.xlsx
+++ b/biology/Médecine/Élixir_sulfanilamide/Élixir_sulfanilamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lixir_sulfanilamide</t>
+          <t>Élixir_sulfanilamide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Elixir sulfanilamide était un antibiotique sulfamidé mal préparé qui a causé un empoisonnement de masse aux États-Unis en 1937. Il a causé la mort de plus de cent personnes. Le tollé général causé par cet incident et d’autres catastrophes similaires a conduit à l’adoption de la loi fédérale de 1938 sur les aliments, les médicaments et les cosmétiques, qui a considérablement augmenté les pouvoirs de la Food and Drug Administration pour réglementer les médicaments. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lixir_sulfanilamide</t>
+          <t>Élixir_sulfanilamide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique des évènements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mis à part le Pure Food and Drug Act de 1906 et le Harrison Act de 1914 interdisant la vente de certains stupéfiants, il n’y avait pas de contrôle réglementaire fédéral aux États-Unis pour les médicaments jusqu’à ce que le Congrès promulgue le Food, Drug, and Cosmetic Act de 1938 en réponse aux empoisonnements à l’élixir sulfanilamide.
 En 1937, S. E. Massengill Company, un fabricant pharmaceutique, a créé une préparation orale de sulfanilamide en utilisant du diéthylène glycol (DEG) comme solvant/excipient, et a appelé la préparation « Elixir Sulfanilamide ». La DEG est toxique pour les humains et les autres mammifères, ce qu'ignorait Harold Watkins, pharmacien en chef et chimiste de l’entreprise. Le premier cas de décès dû à l’éthylène glycol apparenté s'était produit en 1930 et des études avaient été publiées dans des revues médicales indiquant que la DEG pouvait causer des lésions ou une insuffisance rénales, mais sa toxicité n’était pas largement connue avant l’incident.  Watkins a simplement mélangé l’arôme de framboise dans le médicament en poudre, puis a dissous le mélange dans DEG. Les tests sur les animaux n’étaient alors pas requis par la loi, et l'entreprise n’en a effectué aucun. Il n’y avait pas de règlement à l’époque exigeant des tests de sécurité préalables à la mise en marché des médicaments.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lixir_sulfanilamide</t>
+          <t>Élixir_sulfanilamide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Elixir sulfanilamide » (voir la liste des auteurs).</t>
         </is>
